--- a/Powerbi_reports/eng_dim_dataset.xlsx
+++ b/Powerbi_reports/eng_dim_dataset.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,3469 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>audio_filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>duration_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>keywords_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dialouge_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sort sentiment_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Good morning, is this a call to you?</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Professor Hana Maaya Maaya Hana</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Good morning sir. Professor Hana Maaya Maaya Hana. Welcome, sir, can I help you on the same number or on another number?</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Good morning sir</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Good morning sir. Professor Hana Maaya Maaya Hana. Welcome, sir, can I help you on the same number or on another number?</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>same number</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Good morning sir. Professor Hana Maaya Maaya Hana. Welcome, sir, can I help you on the same number or on another number?</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>two digits</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes, it's two digits under each other. The important thing is that I want to tell me that I can't call, have you reached the credit limit?</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>important thing</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes, it's two digits under each other. The important thing is that I want to tell me that I can't call, have you reached the credit limit?</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>credit limit</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes, it's two digits under each other. The important thing is that I want to tell me that I can't call, have you reached the credit limit?</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>credit limit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>If you say to your presence, you reached the credit limit for a moment with me.</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>presence</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>If you say to your presence, you reached the credit limit for a moment with me.</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>moment</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>If you say to your presence, you reached the credit limit for a moment with me.</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ok, okay.</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>What were you talking about, sir?</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Don't know? I mean, how much was I talking to?</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>regular numbers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I mean, you were talking to regular numbers, meaning telecommunications or any other network? No specialized numbers?</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>other network</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I mean, you were talking to regular numbers, meaning telecommunications or any other network? No specialized numbers?</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>specialized numbers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I mean, you were talking to regular numbers, meaning telecommunications or any other network? No specialized numbers?</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>36.97</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>telecommunications</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I mean, you were talking to regular numbers, meaning telecommunications or any other network? No specialized numbers?</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Okay?</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>49.88</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>moment</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A moment of unity.</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>49.88</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A moment of unity.</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>54.64</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>This problem is with you since when?</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>57.84</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>same price</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Now it's the same price for 1/4 hour.</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>57.84</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1/4 hour</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Now it's the same price for 1/4 hour.</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>61.67</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Okay.</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>refresher step</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>I'm clear to me that you are with me for minutes. No problem, all right. I will just work for you as a refresher step through me, and I will talk to you again. Just make sure that the service worked with you or is there a problem?</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>minutes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I'm clear to me that you are with me for minutes. No problem, all right. I will just work for you as a refresher step through me, and I will talk to you again. Just make sure that the service worked with you or is there a problem?</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I'm clear to me that you are with me for minutes. No problem, all right. I will just work for you as a refresher step through me, and I will talk to you again. Just make sure that the service worked with you or is there a problem?</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I'm clear to me that you are with me for minutes. No problem, all right. I will just work for you as a refresher step through me, and I will talk to you again. Just make sure that the service worked with you or is there a problem?</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>flight mode</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>But I will ask your permission to turn on flight mode after ending the call for a minute, okay? And I will talk to you again after I work for you the activation step through me.</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>activation step</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>But I will ask your permission to turn on flight mode after ending the call for a minute, okay? And I will talk to you again after I work for you the activation step through me.</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>permission</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>But I will ask your permission to turn on flight mode after ending the call for a minute, okay? And I will talk to you again after I work for you the activation step through me.</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>But I will ask your permission to turn on flight mode after ending the call for a minute, okay? And I will talk to you again after I work for you the activation step through me.</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>minute</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>But I will ask your permission to turn on flight mode after ending the call for a minute, okay? And I will talk to you again after I work for you the activation step through me.</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>other questions</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I would like to clarify to you any other questions.</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Happy Abu Khaled</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No, sweetheart, thank you, you honored me, Vendem. Happy Abu Khaled from you? Communications? Have a beautiful day with goodbye, mercy, goodbye.</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>beautiful day</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No, sweetheart, thank you, you honored me, Vendem. Happy Abu Khaled from you? Communications? Have a beautiful day with goodbye, mercy, goodbye.</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No, sweetheart, thank you, you honored me, Vendem. Happy Abu Khaled from you? Communications? Have a beautiful day with goodbye, mercy, goodbye.</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>goodbye</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No, sweetheart, thank you, you honored me, Vendem. Happy Abu Khaled from you? Communications? Have a beautiful day with goodbye, mercy, goodbye.</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>mercy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No, sweetheart, thank you, you honored me, Vendem. Happy Abu Khaled from you? Communications? Have a beautiful day with goodbye, mercy, goodbye.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>159385897</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>106.55</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Peace</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Peace be upon you.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>same number</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Contacts</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>sir</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>professor</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>honor</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Good morning. Contacts you love with you. Good morning, sir. Good morning. Welcome, sir. Your news, what professor, thank God, now on the same number that you talk to me. Oh, I'm sorry, of course, your honor, no, no, and you don't care, because I just have a job, now I have a bill of 1300 and I wanted to pay part of it.</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>next part</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>The next part of the month.</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The next part of the month.</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>next month</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>This work is intended to mean installments. Ah. But I don't want to open. I want to pay it, for example, from the beginning of next month?</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>This work is intended to mean installments. Ah. But I don't want to open. I want to pay it, for example, from the beginning of next month?</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>installments</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>This work is intended to mean installments. Ah. But I don't want to open. I want to pay it, for example, from the beginning of next month?</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>This work is intended to mean installments. Ah. But I don't want to open. I want to pay it, for example, from the beginning of next month?</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>This work is intended to mean installments. Ah. But I don't want to open. I want to pay it, for example, from the beginning of next month?</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>next month</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I mean, do you want to pay it in installments from the beginning of the next month? Roger that? Yes, part and at the end of the month I pay the second part one day you had the next month.</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>second part</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>I mean, do you want to pay it in installments from the beginning of the next month? Roger that? Yes, part and at the end of the month I pay the second part one day you had the next month.</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>installments</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>I mean, do you want to pay it in installments from the beginning of the next month? Roger that? Yes, part and at the end of the month I pay the second part one day you had the next month.</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>beginning</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>I mean, do you want to pay it in installments from the beginning of the next month? Roger that? Yes, part and at the end of the month I pay the second part one day you had the next month.</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>I mean, do you want to pay it in installments from the beginning of the next month? Roger that? Yes, part and at the end of the month I pay the second part one day you had the next month.</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>next month</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>I mean a day maybe on the sixth or seventh, ok look you have an expiration anyway until the fifth of next month, originally very nice, okay, so you are not required to pay anything now with you until the next month, now I want to raise</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I mean a day maybe on the sixth or seventh, ok look you have an expiration anyway until the fifth of next month, originally very nice, okay, so you are not required to pay anything now with you until the next month, now I want to raise</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>expiration</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I mean a day maybe on the sixth or seventh, ok look you have an expiration anyway until the fifth of next month, originally very nice, okay, so you are not required to pay anything now with you until the next month, now I want to raise</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Don't you pay anything, now it's day 56, which is the 56th, which is the day of the 56th?</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>56th</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Don't you pay anything, now it's day 56, which is the 56th, which is the day of the 56th?</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>bill</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Will you talk to us and tell us that I want to pay this bill? Or do I want to pay this bill?</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>three installments</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Okay? Ok, we will make you three installments with the first date you will pay and the second time you will pay as long as you want to pay twice, okay? No problem, perfect. If there is anything new, I will also follow up with the credit department and contact you. If there is anything.</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>first date</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Okay? Ok, we will make you three installments with the first date you will pay and the second time you will pay as long as you want to pay twice, okay? No problem, perfect. If there is anything new, I will also follow up with the credit department and contact you. If there is anything.</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>credit department</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Okay? Ok, we will make you three installments with the first date you will pay and the second time you will pay as long as you want to pay twice, okay? No problem, perfect. If there is anything new, I will also follow up with the credit department and contact you. If there is anything.</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Okay? Ok, we will make you three installments with the first date you will pay and the second time you will pay as long as you want to pay twice, okay? No problem, perfect. If there is anything new, I will also follow up with the credit department and contact you. If there is anything.</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>problem</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Okay? Ok, we will make you three installments with the first date you will pay and the second time you will pay as long as you want to pay twice, okay? No problem, perfect. If there is anything new, I will also follow up with the credit department and contact you. If there is anything.</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mercy Leckie Bye Bye</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>other inquiry</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>command</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>sir</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>159775973</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>communications</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Oh I wish I was at your command, of course, regretting any other inquiry I can help you with. Thank you, my life. Mercy Leckie Bye Bye at your service, sir. We are happy to serve you in communications. Bye bye.</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Mr. Mohammed</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>news</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>net</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Good morning, contacts with you, good morning, good morning, Mr. Mohammed, what is your news? Fine, thank God, thank God, please inquire about what's wrong with the net, download a gift on this line, or what?</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>net</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>What does the net mean?</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>God</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>No, unfortunately, by God, it is if there are offers that you need a message with it.</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>offers</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>No, unfortunately, by God, it is if there are offers that you need a message with it.</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>No, unfortunately, by God, it is if there are offers that you need a message with it.</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Yes, is the Internet and finish them with you?</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>sincere need</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>It's done? Ok, there's no need. I am inquiring that I do not have a sincere need for it, and I see people with lines selling it as a gift. There is no need sincerely. What is the reason?</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>It's done? Ok, there's no need. I am inquiring that I do not have a sincere need for it, and I see people with lines selling it as a gift. There is no need sincerely. What is the reason?</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>lines</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>It's done? Ok, there's no need. I am inquiring that I do not have a sincere need for it, and I see people with lines selling it as a gift. There is no need sincerely. What is the reason?</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>gift</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>It's done? Ok, there's no need. I am inquiring that I do not have a sincere need for it, and I see people with lines selling it as a gift. There is no need sincerely. What is the reason?</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>It's done? Ok, there's no need. I am inquiring that I do not have a sincere need for it, and I see people with lines selling it as a gift. There is no need sincerely. What is the reason?</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>No, there is no reason, but if it could be, but you focus on the recorders that bring us, because these guns will remain in them if there is an offer or a need that you can benefit from.</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>recorders</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>No, there is no reason, but if it could be, but you focus on the recorders that bring us, because these guns will remain in them if there is an offer or a need that you can benefit from.</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>guns</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>No, there is no reason, but if it could be, but you focus on the recorders that bring us, because these guns will remain in them if there is an offer or a need that you can benefit from.</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>offer</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>No, there is no reason, but if it could be, but you focus on the recorders that bring us, because these guns will remain in them if there is an offer or a need that you can benefit from.</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>No, there is no reason, but if it could be, but you focus on the recorders that bring us, because these guns will remain in them if there is an offer or a need that you can benefit from.</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Uh, perfect.</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>command</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>At your command, can I help you again?</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>We said we said in gifts net and no need.</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>We said we said in gifts net and no need.</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>62.84</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>We said there is internet or anything?</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>If he comes to you, don't worry?</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mafish</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Mafish. There is no need in it.</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Mafish. There is no need in it.</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>other inquiry</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Thanks pardon. I will also try to follow up with you, even if there is any need for you, I will talk to you again. Okay? Thank you, pardon me for any under your command. Any other inquiry pardon.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Thanks pardon. I will also try to follow up with you, even if there is any need for you, I will talk to you again. Okay? Thank you, pardon me for any under your command. Any other inquiry pardon.</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>159830825</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>command</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Thanks pardon. I will also try to follow up with you, even if there is any need for you, I will talk to you again. Okay? Thank you, pardon me for any under your command. Any other inquiry pardon.</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>